--- a/06-08-2023/out.xlsx
+++ b/06-08-2023/out.xlsx
@@ -8,33 +8,32 @@
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
-    <sheet name="Chart" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="25">
+  <si>
+    <t>E. Final answer and equations same</t>
+  </si>
   <si>
     <t>count</t>
   </si>
   <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>Equations</t>
   </si>
   <si>
     <t>Solving</t>
   </si>
   <si>
+    <t>Understandable</t>
+  </si>
+  <si>
     <t>Theory</t>
   </si>
   <si>
-    <t>Understandable</t>
-  </si>
-  <si>
     <t>category</t>
   </si>
   <si>
@@ -59,6 +58,15 @@
     <t>FAIL</t>
   </si>
   <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>MAYBE</t>
+  </si>
+  <si>
     <t>Definitely cannot solve, may have got wrong rep.</t>
   </si>
   <si>
@@ -81,15 +89,6 @@
   </si>
   <si>
     <t>Gets everything right</t>
-  </si>
-  <si>
-    <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>MAYBE</t>
   </si>
 </sst>
 </file>
@@ -231,72 +230,14 @@
           <c:cat>
             <c:numRef>
               <c:f>Chart!$A$2:$A$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>46</c:v>
-                </c:pt>
-              </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Chart!$E$2:$E$10</c:f>
+              <c:f>Chart!$G$2:$G$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
+                <c:ptCount val="0"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -332,15 +273,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -709,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>132</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>11</v>
@@ -724,7 +665,7 @@
         <v>14</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -744,10 +685,10 @@
         <v>1</v>
       </c>
       <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="1">
         <v>65</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
@@ -756,10 +697,10 @@
         <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -779,10 +720,10 @@
         <v>0</v>
       </c>
       <c r="F4" s="1">
+        <v>0</v>
+      </c>
+      <c r="G4" s="1">
         <v>64</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>13</v>
@@ -791,10 +732,10 @@
         <v>12</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -814,11 +755,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
         <v>57</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
       <c r="H5" s="1" t="s">
         <v>12</v>
       </c>
@@ -826,10 +767,10 @@
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -849,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
         <v>7</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>11</v>
@@ -861,10 +802,10 @@
         <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -884,10 +825,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
         <v>3</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>12</v>
@@ -896,10 +837,10 @@
         <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -919,11 +860,11 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
         <v>35</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
       <c r="H8" s="1" t="s">
         <v>12</v>
       </c>
@@ -931,10 +872,10 @@
         <v>12</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -954,11 +895,11 @@
         <v>1</v>
       </c>
       <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
         <v>9</v>
       </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
       <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
@@ -966,10 +907,10 @@
         <v>12</v>
       </c>
       <c r="J9" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -989,10 +930,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1">
         <v>46</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>11</v>
@@ -1004,7 +945,7 @@
         <v>14</v>
       </c>
       <c r="K10" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1024,10 +965,10 @@
         <v>1</v>
       </c>
       <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
         <v>2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>12</v>
@@ -1036,10 +977,10 @@
         <v>13</v>
       </c>
       <c r="J11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1059,10 +1000,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
         <v>16</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>13</v>
@@ -1071,10 +1012,10 @@
         <v>12</v>
       </c>
       <c r="J12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="K12" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1094,11 +1035,11 @@
         <v>1</v>
       </c>
       <c r="F13" s="1">
+        <v>1</v>
+      </c>
+      <c r="G13" s="1">
         <v>6</v>
       </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
       <c r="H13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1106,10 +1047,10 @@
         <v>12</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1129,10 +1070,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="1">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>12</v>
@@ -1141,10 +1082,10 @@
         <v>13</v>
       </c>
       <c r="J14" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="K14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1176,10 +1117,10 @@
         <v>12</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1199,11 +1140,11 @@
         <v>1</v>
       </c>
       <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
         <v>507</v>
       </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
       <c r="H16" s="1" t="s">
         <v>12</v>
       </c>
@@ -1211,394 +1152,10 @@
         <v>12</v>
       </c>
       <c r="J16" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="K16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2">
-        <v>16</v>
-      </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2">
-        <v>35</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="2">
-        <v>46</v>
-      </c>
-      <c r="B10" s="2">
-        <v>1</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="2">
-        <v>56</v>
-      </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="2">
-        <v>57</v>
-      </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="2">
-        <v>64</v>
-      </c>
-      <c r="B13" s="2">
-        <v>0</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="2">
-        <v>65</v>
-      </c>
-      <c r="B14" s="2">
-        <v>0</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2">
-        <v>132</v>
-      </c>
-      <c r="B15" s="2">
-        <v>0</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2">
-        <v>507</v>
-      </c>
-      <c r="B16" s="2">
-        <v>1</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G16">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/06-08-2023/out.xlsx
+++ b/06-08-2023/out.xlsx
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>11</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>12</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>12</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="1">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>12</v>
@@ -933,7 +933,7 @@
         <v>1</v>
       </c>
       <c r="G10" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>11</v>
@@ -1073,7 +1073,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>12</v>
